--- a/biology/Microbiologie/Curimostomatidae/Curimostomatidae.xlsx
+++ b/biology/Microbiologie/Curimostomatidae/Curimostomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Curimostomatidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Curimostoma, composé de curim, « tondre, raser », et stoma, « bouche », littéralement « à la bouche tondue », en référence à l'absence de bouche (région buccale dite « astomateuse ») chez ces organismes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Curimostoma, composé de curim, « tondre, raser », et stoma, « bouche », littéralement « à la bouche tondue », en référence à l'absence de bouche (région buccale dite « astomateuse ») chez ces organismes.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Curimostomatidae ont une petite taille (&lt; 80 μm). Leur forme va de piriforme à ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec le « système silverline »[note 1],[2] similaire à celui des Tetrahymena (famille des Tetrahymenidae). Leur région buccale est absente (astomateuse).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Curimostomatidae ont une petite taille (&lt; 80 μm). Leur forme va de piriforme à ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. uniforme), avec le « système silverline »[note 1], similaire à celui des Tetrahymena (famille des Tetrahymenidae). Leur région buccale est absente (astomateuse).
 Leur macronoyau est globulaire. Micronoyau et vacuoles contractiles sont présents. Un cytoprocte (anus) est également présent.
-Ces organismes pourraient être osmotrophes[note 2],[1].
+Ces organismes pourraient être osmotrophes[note 2],.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Curimostomatidae vivent dans des habitats d'eau douce et terrestres comme parasites obligatoires des mollusques et des vers plats turbellariés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Curimostomatidae vivent dans des habitats d'eau douce et terrestres comme parasites obligatoires des mollusques et des vers plats turbellariés.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 septembre 2023)[3] et Lynn (2010)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 septembre 2023) et Lynn (2010) :
 Curimostoma Kozloff, 1954
 Espèce type : Curimostoma renale (Kay, 1946) Kozloff, 1954
 Dogielella Poljanskii, 1925
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Curimostomatidae Jankowski, 1968[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Curimostomatidae Jankowski, 1968.
 </t>
         </is>
       </c>
